--- a/Errors.xlsx
+++ b/Errors.xlsx
@@ -393,18 +393,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>500000</v>
+        <v>18803.48056329</v>
       </c>
       <c r="B2">
-        <v>500000</v>
+        <v>403959.9869150309</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>125491.6610661921</v>
+        <v>18247.8024914475</v>
       </c>
       <c r="B3">
-        <v>375163.8870220641</v>
+        <v>260202.0653057777</v>
       </c>
     </row>
   </sheetData>

--- a/Errors.xlsx
+++ b/Errors.xlsx
@@ -393,18 +393,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>18803.48056329</v>
+        <v>35284.03910902607</v>
       </c>
       <c r="B2">
-        <v>403959.9869150309</v>
+        <v>334457.7360245059</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>18247.8024914475</v>
+        <v>24016.27418681873</v>
       </c>
       <c r="B3">
-        <v>260202.0653057777</v>
+        <v>152856.2684591258</v>
       </c>
     </row>
   </sheetData>

--- a/Errors.xlsx
+++ b/Errors.xlsx
@@ -377,62 +377,250 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>8898.968203768698</v>
       </c>
       <c r="B2">
-        <v>4471.574041411439</v>
-      </c>
-      <c r="C2">
-        <v>281129.3374327404</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+        <v>235967.5584387166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>6259.167231245518</v>
       </c>
       <c r="B3">
-        <v>4648.642663596063</v>
-      </c>
-      <c r="C3">
-        <v>209890.1748541036</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+        <v>238792.9586807198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>12827.30556459421</v>
       </c>
       <c r="B4">
-        <v>4409.258806385216</v>
-      </c>
-      <c r="C4">
-        <v>198666.2220098655</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+        <v>205992.5494565118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>7226.633876313581</v>
       </c>
       <c r="B5">
-        <v>3791.459154902618</v>
-      </c>
-      <c r="C5">
-        <v>116240.6451923249</v>
+        <v>157434.1666443461</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>6374.698941693697</v>
+      </c>
+      <c r="B6">
+        <v>126060.9432947129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>5855.827315557725</v>
+      </c>
+      <c r="B7">
+        <v>145435.9772255669</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>5442.867872693857</v>
+      </c>
+      <c r="B8">
+        <v>130641.7146016793</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>5529.651172735039</v>
+      </c>
+      <c r="B9">
+        <v>118415.9765262654</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>4643.506464438153</v>
+      </c>
+      <c r="B10">
+        <v>107825.22276116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>4313.913787328485</v>
+      </c>
+      <c r="B11">
+        <v>100935.0650282809</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>5276.344555676355</v>
+      </c>
+      <c r="B12">
+        <v>66318.97741683095</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>4586.17595137828</v>
+      </c>
+      <c r="B13">
+        <v>55511.79017721468</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>5161.778856062328</v>
+      </c>
+      <c r="B14">
+        <v>63556.73376876891</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>5097.815034052432</v>
+      </c>
+      <c r="B15">
+        <v>37935.33118231677</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>4698.348597988329</v>
+      </c>
+      <c r="B16">
+        <v>34606.64580939884</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>4481.229121668176</v>
+      </c>
+      <c r="B17">
+        <v>27762.21639284517</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>4160.453903640662</v>
+      </c>
+      <c r="B18">
+        <v>42177.81672735398</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>3881.739189008667</v>
+      </c>
+      <c r="B19">
+        <v>58077.73292895038</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>3896.76785932206</v>
+      </c>
+      <c r="B20">
+        <v>46257.2106953445</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>3641.093403688756</v>
+      </c>
+      <c r="B21">
+        <v>56272.31323749063</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>4187.232144093535</v>
+      </c>
+      <c r="B22">
+        <v>45588.3560506459</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>4187.232144093535</v>
+      </c>
+      <c r="B23">
+        <v>10951.69870936312</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>3810.949103188824</v>
+      </c>
+      <c r="B24">
+        <v>25694.15206597459</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>3757.77999179922</v>
+      </c>
+      <c r="B25">
+        <v>24174.45490708314</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>3850.050662959081</v>
+      </c>
+      <c r="B26">
+        <v>35399.18743428691</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>3850.050662959081</v>
+      </c>
+      <c r="B27">
+        <v>35571.34369808803</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>3838.017877783796</v>
+      </c>
+      <c r="B28">
+        <v>20780.70044323709</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>3776.389823615011</v>
+      </c>
+      <c r="B29">
+        <v>50078.61619841496</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>3756.810491377661</v>
+      </c>
+      <c r="B30">
+        <v>25751.06990538807</v>
       </c>
     </row>
   </sheetData>
